--- a/xetroc.xlsx
+++ b/xetroc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08e9d1d1b3ac9846/Lehre/RO MPT ES/RO/xetroc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE62022-8AC2-4E18-B274-AF4E6A735F87}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816B45D5-372A-4CFA-963A-F64580F2200F}"/>
   <bookViews>
-    <workbookView xWindow="33210" yWindow="1110" windowWidth="33885" windowHeight="19350" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
+    <workbookView xWindow="42780" yWindow="3210" windowWidth="31830" windowHeight="16455" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA7711-5FD7-475F-9214-D56844A47F92}">
-  <dimension ref="B2:AB61"/>
+  <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,492 +1442,492 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+    <row r="12" spans="2:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>1</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="14" t="s">
+      <c r="P12" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="17">
-        <v>0</v>
-      </c>
-      <c r="X13" s="17" t="s">
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="X12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="Y12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z12" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
+    <row r="13" spans="2:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21">
-        <v>1</v>
-      </c>
-      <c r="K16" s="21">
-        <v>1</v>
-      </c>
-      <c r="L16" s="21">
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
-        <v>0</v>
-      </c>
-      <c r="N16" s="21">
-        <v>1</v>
-      </c>
-      <c r="O16" s="18" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="18" t="s">
+      <c r="P13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="U13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="21">
-        <v>0</v>
-      </c>
-      <c r="X16" s="21" t="s">
+      <c r="V13" s="21">
+        <v>0</v>
+      </c>
+      <c r="X13" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="Y16" s="20" t="s">
+      <c r="Y13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" s="20">
+      <c r="Z13" s="20">
         <v>-2</v>
       </c>
-      <c r="AB16" s="20" t="s">
+      <c r="AB13" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
+    <row r="14" spans="2:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21">
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="21">
-        <v>1</v>
-      </c>
-      <c r="O17" s="18" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="18" t="s">
+      <c r="P14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V17" s="21">
-        <v>0</v>
-      </c>
-      <c r="X17" s="21" t="s">
+      <c r="V14" s="21">
+        <v>0</v>
+      </c>
+      <c r="X14" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="Y17" s="20" t="s">
+      <c r="Y14" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="Z14" s="20">
         <v>-2</v>
       </c>
-      <c r="AB17" s="20" t="s">
+      <c r="AB14" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="V18" s="3"/>
-    </row>
-    <row r="20" spans="2:28" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="26" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="V15" s="3"/>
+    </row>
+    <row r="17" spans="2:22" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7" t="s">
+      <c r="O17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="8" t="s">
+      <c r="T17" s="7"/>
+      <c r="U17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E24" s="27" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E21" s="27" t="s">
         <v>53</v>
       </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="28" t="s">
-        <v>26</v>
-      </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F36" s="3">
-        <v>1</v>
+      <c r="E36" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
       <c r="J36" s="29" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
       <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="30" t="s">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E53" s="30" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D55" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D56" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="31" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="4:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D58" s="31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D59" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D61" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O16:O17 U16:U17 C16:C17 T8" numberStoredAsText="1"/>
+    <ignoredError sqref="O13:O14 U13:U14 C13:C14 T8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/xetroc.xlsx
+++ b/xetroc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08e9d1d1b3ac9846/Lehre/RO MPT ES/RO/xetroc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816B45D5-372A-4CFA-963A-F64580F2200F}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{225ECD2D-395E-4BB6-B859-38290EDDDA9A}"/>
   <bookViews>
-    <workbookView xWindow="42780" yWindow="3210" windowWidth="31830" windowHeight="16455" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
+    <workbookView xWindow="44235" yWindow="4215" windowWidth="31830" windowHeight="16455" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="120">
   <si>
     <t>16-bit encoding</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>self loop, unconditional</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA7711-5FD7-475F-9214-D56844A47F92}">
   <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1624,7 @@
         <v>117</v>
       </c>
       <c r="Y14" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z14" s="20">
         <v>-2</v>

--- a/xetroc.xlsx
+++ b/xetroc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08e9d1d1b3ac9846/Lehre/RO MPT ES/RO/xetroc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04275603-ACDA-403E-AD6F-DF209529F5FB}"/>
+  <xr:revisionPtr revIDLastSave="676" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52E20BFF-54E5-4CDC-B6C5-9D59441220E5}"/>
   <bookViews>
-    <workbookView xWindow="36720" yWindow="4425" windowWidth="31830" windowHeight="16455" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
+    <workbookView xWindow="39870" yWindow="3405" windowWidth="31830" windowHeight="16455" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
   <si>
     <t>16-bit encoding</t>
   </si>
@@ -717,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -800,9 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1230,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA7711-5FD7-475F-9214-D56844A47F92}">
   <dimension ref="B1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:M54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,10 +1685,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>30</v>
@@ -1708,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="11">
         <v>1</v>
@@ -1720,7 +1717,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>102</v>
@@ -1732,14 +1729,14 @@
         <v>20</v>
       </c>
       <c r="U11" s="11"/>
-      <c r="V11" s="11">
-        <v>9401</v>
+      <c r="V11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="W11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X11" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:26" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1748,10 +1745,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
@@ -1768,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="11">
         <v>1</v>
@@ -1780,7 +1777,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>102</v>
@@ -1792,14 +1789,14 @@
         <v>20</v>
       </c>
       <c r="U12" s="11"/>
-      <c r="V12" s="11" t="s">
-        <v>65</v>
+      <c r="V12" s="11">
+        <v>9401</v>
       </c>
       <c r="W12" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X12" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1979,7 +1976,7 @@
       <c r="H21" s="30">
         <v>0</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1987,13 +1984,13 @@
       <c r="F22" s="31">
         <v>0</v>
       </c>
-      <c r="G22" s="32">
-        <v>0</v>
-      </c>
-      <c r="H22" s="33">
-        <v>1</v>
-      </c>
-      <c r="I22" s="38" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2001,13 +1998,13 @@
       <c r="F23" s="31">
         <v>0</v>
       </c>
-      <c r="G23" s="32">
-        <v>1</v>
-      </c>
-      <c r="H23" s="33">
-        <v>0</v>
-      </c>
-      <c r="I23" s="38">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2015,13 +2012,13 @@
       <c r="F24" s="31">
         <v>0</v>
       </c>
-      <c r="G24" s="32">
-        <v>1</v>
-      </c>
-      <c r="H24" s="33">
-        <v>1</v>
-      </c>
-      <c r="I24" s="38" t="s">
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2029,13 +2026,13 @@
       <c r="F25" s="31">
         <v>1</v>
       </c>
-      <c r="G25" s="32">
-        <v>0</v>
-      </c>
-      <c r="H25" s="33">
-        <v>0</v>
-      </c>
-      <c r="I25" s="38" t="s">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2043,13 +2040,13 @@
       <c r="F26" s="31">
         <v>1</v>
       </c>
-      <c r="G26" s="32">
-        <v>0</v>
-      </c>
-      <c r="H26" s="33">
-        <v>1</v>
-      </c>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+      <c r="I26" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2057,27 +2054,27 @@
       <c r="F27" s="31">
         <v>1</v>
       </c>
-      <c r="G27" s="32">
-        <v>1</v>
-      </c>
-      <c r="H27" s="33">
-        <v>0</v>
-      </c>
-      <c r="I27" s="38" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F28" s="34">
-        <v>1</v>
-      </c>
-      <c r="G28" s="35">
-        <v>1</v>
-      </c>
-      <c r="H28" s="36">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39" t="s">
+      <c r="F28" s="33">
+        <v>1</v>
+      </c>
+      <c r="G28" s="34">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
+        <v>1</v>
+      </c>
+      <c r="I28" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2091,7 +2088,7 @@
       <c r="G30" s="30">
         <v>0</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="29"/>
@@ -2101,55 +2098,51 @@
       <c r="F31" s="31">
         <v>0</v>
       </c>
-      <c r="G31" s="33">
-        <v>1</v>
-      </c>
-      <c r="H31" s="41" t="s">
+      <c r="G31" s="32">
+        <v>1</v>
+      </c>
+      <c r="H31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F32" s="31">
         <v>1</v>
       </c>
-      <c r="G32" s="33">
-        <v>0</v>
-      </c>
-      <c r="H32" s="41" t="s">
+      <c r="G32" s="32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F33" s="34">
-        <v>1</v>
-      </c>
-      <c r="G33" s="36">
-        <v>1</v>
-      </c>
-      <c r="H33" s="42" t="s">
+      <c r="F33" s="33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="35">
+        <v>1</v>
+      </c>
+      <c r="H33" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E35" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="F35" s="28"/>
+      <c r="G35" s="28">
         <v>0</v>
       </c>
       <c r="H35" s="30">
         <v>0</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="39" t="s">
         <v>87</v>
       </c>
       <c r="J35" s="29"/>
@@ -2158,233 +2151,199 @@
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="32">
-        <v>0</v>
-      </c>
-      <c r="H36" s="33">
-        <v>1</v>
-      </c>
-      <c r="I36" s="41" t="s">
+      <c r="F36" s="31"/>
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="33"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="32">
-        <v>1</v>
-      </c>
-      <c r="H37" s="33">
-        <v>0</v>
-      </c>
-      <c r="I37" s="41" t="s">
+      <c r="F37" s="31"/>
+      <c r="G37" s="33">
+        <v>1</v>
+      </c>
+      <c r="H37" s="35">
+        <v>0</v>
+      </c>
+      <c r="I37" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="31">
-        <v>0</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="41" t="s">
+      <c r="F38" s="36">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="33"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="34">
-        <v>1</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="42" t="s">
+      <c r="F39" s="38">
+        <v>1</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="36"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="J42" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="53">
-        <v>0</v>
-      </c>
-      <c r="G43" s="54">
-        <v>0</v>
-      </c>
-      <c r="H43" s="54">
-        <v>0</v>
-      </c>
-      <c r="I43" s="54" t="s">
+      <c r="F43" s="52">
+        <v>0</v>
+      </c>
+      <c r="G43" s="53">
+        <v>0</v>
+      </c>
+      <c r="H43" s="53">
+        <v>0</v>
+      </c>
+      <c r="I43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J43" s="55" t="s">
+      <c r="J43" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F44" s="56">
-        <v>1</v>
-      </c>
-      <c r="G44" s="57">
-        <v>0</v>
-      </c>
-      <c r="H44" s="57">
-        <v>0</v>
-      </c>
-      <c r="I44" s="57" t="s">
+      <c r="F44" s="55">
+        <v>1</v>
+      </c>
+      <c r="G44" s="56">
+        <v>0</v>
+      </c>
+      <c r="H44" s="56">
+        <v>0</v>
+      </c>
+      <c r="I44" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="58" t="s">
+      <c r="J44" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="K44" s="49" t="s">
+      <c r="K44" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="57">
-        <v>1</v>
-      </c>
-      <c r="I45" s="57" t="s">
+      <c r="H45" s="56">
+        <v>1</v>
+      </c>
+      <c r="I45" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="58">
-        <v>0</v>
-      </c>
-      <c r="K45" s="49" t="s">
+      <c r="J45" s="57">
+        <v>0</v>
+      </c>
+      <c r="K45" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="56">
-        <v>0</v>
-      </c>
-      <c r="G46" s="57">
-        <v>1</v>
-      </c>
-      <c r="H46" s="57">
-        <v>0</v>
-      </c>
-      <c r="I46" s="57" t="s">
+      <c r="F46" s="55">
+        <v>0</v>
+      </c>
+      <c r="G46" s="56">
+        <v>1</v>
+      </c>
+      <c r="H46" s="56">
+        <v>0</v>
+      </c>
+      <c r="I46" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="J46" s="58">
-        <v>0</v>
-      </c>
-      <c r="K46" s="49" t="s">
+      <c r="J46" s="57">
+        <v>0</v>
+      </c>
+      <c r="K46" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="59">
-        <v>1</v>
-      </c>
-      <c r="G47" s="60">
-        <v>1</v>
-      </c>
-      <c r="H47" s="60">
-        <v>0</v>
-      </c>
-      <c r="I47" s="60" t="s">
+      <c r="F47" s="58">
+        <v>1</v>
+      </c>
+      <c r="G47" s="59">
+        <v>1</v>
+      </c>
+      <c r="H47" s="59">
+        <v>0</v>
+      </c>
+      <c r="I47" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="J47" s="61">
-        <v>1</v>
-      </c>
-      <c r="K47" s="49" t="s">
+      <c r="J47" s="60">
+        <v>1</v>
+      </c>
+      <c r="K47" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="45"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="45"/>
+      <c r="H50" s="44"/>
       <c r="I50" s="17" t="s">
         <v>134</v>
       </c>
@@ -2393,22 +2352,22 @@
       <c r="E52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="44" t="s">
+      <c r="H52" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J52" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="45" t="s">
+      <c r="K52" s="44" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2434,22 +2393,22 @@
       </c>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="35">
-        <v>1</v>
-      </c>
-      <c r="H54" s="35" t="s">
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I54" s="35" t="s">
+      <c r="I54" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="J54" s="47" t="s">
+      <c r="J54" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="K54" s="36"/>
+      <c r="K54" s="35"/>
       <c r="L54" s="17" t="s">
         <v>133</v>
       </c>

--- a/xetroc.xlsx
+++ b/xetroc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08e9d1d1b3ac9846/Lehre/RO MPT ES/RO/xetroc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C77977A-7F69-4E3E-AD1F-A456D4479F57}"/>
+  <xr:revisionPtr revIDLastSave="987" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B1FA20-7A78-4926-97AC-4FA47582A9F0}"/>
   <bookViews>
-    <workbookView xWindow="20985" yWindow="3000" windowWidth="63615" windowHeight="17880" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
+    <workbookView xWindow="13185" yWindow="3000" windowWidth="63615" windowHeight="17880" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:R14"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
         <v>54</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7" t="s">
@@ -1903,7 +1903,7 @@
         <v>39</v>
       </c>
       <c r="AG8" s="67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH8" s="67"/>
       <c r="AI8" s="67">
@@ -3490,7 +3490,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AC13:AC14 AG13:AG14 A8:P8 A11:P14 A5:J7 A10:E10 A9:E9 I9:P9 I10:P10 A4" numberStoredAsText="1"/>
+    <ignoredError sqref="AC13:AC14 AG13:AG14 A8:P8 A11:P14 A5:J7 A10:E10 A9:E9 I9:P9 I10:P10 A4 AG5:AG12 X5:X14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/xetroc.xlsx
+++ b/xetroc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08e9d1d1b3ac9846/Lehre/RO MPT ES/RO/xetroc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="987" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B1FA20-7A78-4926-97AC-4FA47582A9F0}"/>
+  <xr:revisionPtr revIDLastSave="1281" documentId="8_{1DFA63E7-D0C4-4296-8A41-B08683187CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2B17E7-849C-493F-93B9-8F2B3E77B9EC}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="3000" windowWidth="63615" windowHeight="17880" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15634" xr2:uid="{0C8C6F34-8F7C-4CD6-92D1-3EA217BDBAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="244">
   <si>
     <t xml:space="preserve">MOVS &lt;Rd&gt;, #&lt;imm8&gt;   </t>
   </si>
@@ -615,6 +615,159 @@
   </si>
   <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Branch conditions</t>
+  </si>
+  <si>
+    <t>ANDS</t>
+  </si>
+  <si>
+    <t>EORS</t>
+  </si>
+  <si>
+    <t>LSLS</t>
+  </si>
+  <si>
+    <t>LSRS</t>
+  </si>
+  <si>
+    <t>ASRS</t>
+  </si>
+  <si>
+    <t>ADCS</t>
+  </si>
+  <si>
+    <t>SBCS</t>
+  </si>
+  <si>
+    <t>RORS</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>RSBS</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>ORRS</t>
+  </si>
+  <si>
+    <t>MULS</t>
+  </si>
+  <si>
+    <t>BICS</t>
+  </si>
+  <si>
+    <t>MVNS</t>
+  </si>
+  <si>
+    <t>add with carry</t>
+  </si>
+  <si>
+    <t>sub with carry</t>
+  </si>
+  <si>
+    <t>rotate right</t>
+  </si>
+  <si>
+    <t>compare (like SUB), no result but flags</t>
+  </si>
+  <si>
+    <t>test (like AND), no result but flags</t>
+  </si>
+  <si>
+    <t>compare negative (like RSB)</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>bitwise bit clear</t>
+  </si>
+  <si>
+    <t>conditional branches</t>
+  </si>
+  <si>
+    <t>reverse subtract (from 0), NEG</t>
+  </si>
+  <si>
+    <t>arithmetic shift right (signed)</t>
+  </si>
+  <si>
+    <t>logical shift right (unsigned)</t>
+  </si>
+  <si>
+    <t>logical shift left (unsigned)</t>
+  </si>
+  <si>
+    <t>bitwise (logical) exclusive OR</t>
+  </si>
+  <si>
+    <t>bitwise (logical) AND</t>
+  </si>
+  <si>
+    <t>bitwise (logical) OR</t>
+  </si>
+  <si>
+    <t>bitwise (logical) NOT</t>
+  </si>
+  <si>
+    <t>data processing (not implemented yet)</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn &amp; Rm</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn ^ Rm</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn &lt;&lt; Rm</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn &gt;&gt; Rm</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn ASR Rm</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn + Rm + C-bit</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn - Rm - NOT C-bit</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn ROR Rm</t>
+  </si>
+  <si>
+    <t>NZCV := NZCV(Rdn &amp; Rm)</t>
+  </si>
+  <si>
+    <t>Rdn = -Rm</t>
+  </si>
+  <si>
+    <t>NZCV := NZCV(Rdn - Rm)</t>
+  </si>
+  <si>
+    <t>NZCV := NZCV(Rdn + Rm)</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn | Rm</t>
+  </si>
+  <si>
+    <t>Rdn := Rm * Rdn</t>
+  </si>
+  <si>
+    <t>Rdn := Rdn &amp; ~Rm</t>
+  </si>
+  <si>
+    <t>Rdn := ~Rm</t>
   </si>
 </sst>
 </file>
@@ -651,7 +804,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,8 +835,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -860,11 +1031,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -900,9 +1115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,22 +1226,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,10 +1253,156 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,12 +1417,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1395,40 +1734,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA7711-5FD7-475F-9214-D56844A47F92}">
-  <dimension ref="A1:AM82"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.140625" style="1" customWidth="1"/>
-    <col min="19" max="23" width="5.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" style="1" customWidth="1"/>
+    <col min="2" max="16" width="2.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.53515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.15234375" style="1" customWidth="1"/>
+    <col min="19" max="23" width="5.3828125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.53515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.3828125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="3"/>
-    <col min="34" max="34" width="11.42578125" style="1"/>
-    <col min="35" max="35" width="11.42578125" style="2"/>
-    <col min="36" max="16384" width="11.42578125" style="1"/>
+    <col min="32" max="32" width="12.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.3828125" style="3"/>
+    <col min="34" max="34" width="11.3828125" style="1"/>
+    <col min="35" max="35" width="11.3828125" style="2"/>
+    <col min="36" max="16384" width="11.3828125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.4">
       <c r="R1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>138</v>
       </c>
@@ -1478,157 +1820,173 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="92">
         <v>8</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="AH4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+    </row>
+    <row r="5" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="X5" s="7" t="s">
+      <c r="V5" s="3"/>
+      <c r="X5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7" t="s">
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AD5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="7" t="s">
+      <c r="AF5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG5" s="7" t="s">
+      <c r="AG5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7" t="s">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AJ5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AK5" s="82" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="65" t="s">
         <v>135</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -1637,719 +1995,719 @@
       <c r="J6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="13" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="X6" s="7" t="s">
+      <c r="V6" s="3"/>
+      <c r="X6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7" t="s">
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AD6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7" t="s">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ6" s="13" t="s">
+      <c r="AJ6" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="AK6" s="13" t="s">
+      <c r="AK6" s="82" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="13" t="s">
+      <c r="Q7" s="96"/>
+      <c r="R7" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="X7" s="7" t="s">
+      <c r="V7" s="96"/>
+      <c r="X7" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7" t="s">
+      <c r="Y7" s="96">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="96">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="96">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="AD7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AD7" s="96">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7" t="s">
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="13" t="s">
+      <c r="AJ7" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AK7" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="O8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="P8" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="67" t="s">
+      <c r="I8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67" t="s">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="67"/>
-      <c r="X8" s="67" t="s">
+      <c r="V8" s="3"/>
+      <c r="X8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="67" t="s">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="67" t="s">
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="67" t="s">
+      <c r="AF8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG8" s="67" t="s">
+      <c r="AG8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67">
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3">
         <v>2156</v>
       </c>
-      <c r="AJ8" s="69" t="s">
+      <c r="AJ8" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="AK8" s="69" t="s">
+      <c r="AK8" s="82" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="67" t="s">
+      <c r="I9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67" t="s">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="67"/>
-      <c r="X9" s="67" t="s">
+      <c r="V9" s="3"/>
+      <c r="X9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y9" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="67" t="s">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="67" t="s">
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AF9" s="67" t="s">
+      <c r="AF9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG9" s="67" t="s">
+      <c r="AG9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3">
         <v>3203</v>
       </c>
-      <c r="AJ9" s="69" t="s">
+      <c r="AJ9" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="AK9" s="69" t="s">
+      <c r="AK9" s="82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="O10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="69" t="s">
+      <c r="I10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="67" t="s">
+      <c r="S10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67" t="s">
+      <c r="T10" s="96"/>
+      <c r="U10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="67"/>
-      <c r="X10" s="67" t="s">
+      <c r="V10" s="96"/>
+      <c r="X10" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="Y10" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="67" t="s">
+      <c r="Y10" s="96">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="96">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="96">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AD10" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="67" t="s">
+      <c r="AD10" s="96">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AF10" s="67" t="s">
+      <c r="AF10" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AG10" s="67" t="s">
+      <c r="AG10" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67" t="s">
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="69" t="s">
+      <c r="AJ10" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AK10" s="69" t="s">
+      <c r="AK10" s="107" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="14" t="s">
+      <c r="I11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8" t="s">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="8"/>
-      <c r="X11" s="8" t="s">
+      <c r="V11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="8" t="s">
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="8" t="s">
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG11" s="8" t="s">
+      <c r="AG11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8" t="s">
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AJ11" s="14" t="s">
+      <c r="AJ11" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AK11" s="14" t="s">
+      <c r="AK11" s="82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="14" t="s">
+      <c r="I12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8" t="s">
+      <c r="T12" s="96"/>
+      <c r="U12" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="8"/>
-      <c r="X12" s="8" t="s">
+      <c r="V12" s="96"/>
+      <c r="X12" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="8" t="s">
+      <c r="Y12" s="96">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="96">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="96">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8" t="s">
+      <c r="AD12" s="96">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AF12" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AG12" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8">
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96">
         <v>9401</v>
       </c>
-      <c r="AJ12" s="14" t="s">
+      <c r="AJ12" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="AK12" s="14" t="s">
+      <c r="AK12" s="107" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="9" t="s">
         <v>133</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -2358,7 +2716,7 @@
       <c r="K13" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="64" t="s">
         <v>133</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -2370,170 +2728,170 @@
       <c r="O13" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="15" t="s">
+      <c r="P13" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="X13" s="9" t="s">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y13" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="9" t="s">
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="9" t="s">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AF13" s="9" t="s">
+      <c r="AF13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG13" s="9" t="s">
+      <c r="AG13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9" t="s">
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AJ13" s="15" t="s">
+      <c r="AJ13" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="AK13" s="15">
+      <c r="AK13" s="82">
         <v>-2</v>
       </c>
-      <c r="AM13" s="15" t="s">
+      <c r="AM13" s="82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="15" t="s">
+      <c r="F14" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="X14" s="9" t="s">
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="X14" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="Y14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="9" t="s">
+      <c r="Y14" s="96">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="96">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="96">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="AD14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AD14" s="96">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" s="9" t="s">
+      <c r="AF14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AG14" s="9" t="s">
+      <c r="AG14" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9" t="s">
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="AJ14" s="15" t="s">
+      <c r="AJ14" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="AK14" s="15">
+      <c r="AK14" s="107">
         <v>-2</v>
       </c>
-      <c r="AM14" s="15" t="s">
+      <c r="AM14" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
       <c r="AH15" s="2"/>
     </row>
-    <row r="17" spans="18:36" s="4" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:36" s="4" customFormat="1" ht="174.9" x14ac:dyDescent="0.4">
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2567,930 +2925,1434 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="18:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="18:36" x14ac:dyDescent="0.4">
       <c r="R21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="16">
-        <v>0</v>
-      </c>
-      <c r="T21" s="17">
-        <v>0</v>
-      </c>
-      <c r="U21" s="18">
-        <v>0</v>
-      </c>
-      <c r="V21" s="24" t="s">
+      <c r="S21" s="13">
+        <v>0</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S22" s="19">
+    <row r="22" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S22" s="16">
         <v>0</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
-      <c r="U22" s="20">
-        <v>1</v>
-      </c>
-      <c r="V22" s="25" t="s">
+      <c r="U22" s="17">
+        <v>1</v>
+      </c>
+      <c r="V22" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S23" s="19">
+    <row r="23" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S23" s="16">
         <v>0</v>
       </c>
       <c r="T23" s="2">
         <v>1</v>
       </c>
-      <c r="U23" s="20">
-        <v>0</v>
-      </c>
-      <c r="V23" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S24" s="19">
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S24" s="16">
         <v>0</v>
       </c>
       <c r="T24" s="2">
         <v>1</v>
       </c>
-      <c r="U24" s="20">
-        <v>1</v>
-      </c>
-      <c r="V24" s="25" t="s">
+      <c r="U24" s="17">
+        <v>1</v>
+      </c>
+      <c r="V24" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S25" s="19">
+    <row r="25" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S25" s="16">
         <v>1</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="20">
-        <v>0</v>
-      </c>
-      <c r="V25" s="25" t="s">
+      <c r="U25" s="17">
+        <v>0</v>
+      </c>
+      <c r="V25" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S26" s="19">
+    <row r="26" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S26" s="16">
         <v>1</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="20">
-        <v>1</v>
-      </c>
-      <c r="V26" s="25" t="s">
+      <c r="U26" s="17">
+        <v>1</v>
+      </c>
+      <c r="V26" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S27" s="19">
+    <row r="27" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S27" s="16">
         <v>1</v>
       </c>
       <c r="T27" s="2">
         <v>1</v>
       </c>
-      <c r="U27" s="20">
-        <v>0</v>
-      </c>
-      <c r="V27" s="25" t="s">
+      <c r="U27" s="17">
+        <v>0</v>
+      </c>
+      <c r="V27" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S28" s="21">
-        <v>1</v>
-      </c>
-      <c r="T28" s="22">
-        <v>1</v>
-      </c>
-      <c r="U28" s="23">
-        <v>1</v>
-      </c>
-      <c r="V28" s="26" t="s">
+    <row r="28" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S28" s="18">
+        <v>1</v>
+      </c>
+      <c r="T28" s="19">
+        <v>1</v>
+      </c>
+      <c r="U28" s="20">
+        <v>1</v>
+      </c>
+      <c r="V28" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="18:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:36" x14ac:dyDescent="0.4">
       <c r="R30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="16">
-        <v>0</v>
-      </c>
-      <c r="T30" s="18">
-        <v>0</v>
-      </c>
-      <c r="U30" s="27" t="s">
+      <c r="S30" s="13">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="17"/>
-      <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S31" s="19">
-        <v>0</v>
-      </c>
-      <c r="T31" s="20">
-        <v>1</v>
-      </c>
-      <c r="U31" s="28" t="s">
+      <c r="V30" s="14"/>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17">
+        <v>1</v>
+      </c>
+      <c r="U31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="W31" s="20"/>
-    </row>
-    <row r="32" spans="18:36" x14ac:dyDescent="0.25">
-      <c r="S32" s="19">
-        <v>1</v>
-      </c>
-      <c r="T32" s="20">
-        <v>0</v>
-      </c>
-      <c r="U32" s="28" t="s">
+      <c r="W31" s="17"/>
+    </row>
+    <row r="32" spans="18:36" x14ac:dyDescent="0.4">
+      <c r="S32" s="16">
+        <v>1</v>
+      </c>
+      <c r="T32" s="17">
+        <v>0</v>
+      </c>
+      <c r="U32" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="W32" s="20"/>
-    </row>
-    <row r="33" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S33" s="21">
-        <v>1</v>
-      </c>
-      <c r="T33" s="23">
-        <v>1</v>
-      </c>
-      <c r="U33" s="29" t="s">
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S33" s="18">
+        <v>1</v>
+      </c>
+      <c r="T33" s="20">
+        <v>1</v>
+      </c>
+      <c r="U33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="22"/>
-      <c r="W33" s="23"/>
-    </row>
-    <row r="35" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="V33" s="19"/>
+      <c r="W33" s="20"/>
+    </row>
+    <row r="35" spans="18:26" x14ac:dyDescent="0.4">
       <c r="R35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16">
-        <v>0</v>
-      </c>
-      <c r="U35" s="18">
-        <v>0</v>
-      </c>
-      <c r="V35" s="27" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="18"/>
-    </row>
-    <row r="36" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S36" s="19"/>
-      <c r="T36" s="19">
-        <v>0</v>
-      </c>
-      <c r="U36" s="20">
-        <v>1</v>
-      </c>
-      <c r="V36" s="28" t="s">
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="15"/>
+    </row>
+    <row r="36" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S36" s="16"/>
+      <c r="T36" s="16">
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <v>1</v>
+      </c>
+      <c r="V36" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Z36" s="20"/>
-    </row>
-    <row r="37" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S37" s="19"/>
-      <c r="T37" s="21">
-        <v>1</v>
-      </c>
-      <c r="U37" s="23">
-        <v>0</v>
-      </c>
-      <c r="V37" s="28" t="s">
+      <c r="Z36" s="17"/>
+    </row>
+    <row r="37" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S37" s="16"/>
+      <c r="T37" s="18">
+        <v>1</v>
+      </c>
+      <c r="U37" s="20">
+        <v>0</v>
+      </c>
+      <c r="V37" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="Z37" s="20"/>
-    </row>
-    <row r="38" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S38" s="24">
-        <v>0</v>
-      </c>
-      <c r="U38" s="20"/>
-      <c r="V38" s="28" t="s">
+      <c r="Z37" s="17"/>
+    </row>
+    <row r="38" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S38" s="21">
+        <v>0</v>
+      </c>
+      <c r="U38" s="17"/>
+      <c r="V38" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="20"/>
-    </row>
-    <row r="39" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S39" s="26">
-        <v>1</v>
-      </c>
-      <c r="T39" s="22"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="29" t="s">
+      <c r="Z38" s="17"/>
+    </row>
+    <row r="39" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S39" s="23">
+        <v>1</v>
+      </c>
+      <c r="T39" s="19"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="23"/>
-    </row>
-    <row r="42" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="20"/>
+    </row>
+    <row r="42" spans="18:26" x14ac:dyDescent="0.4">
       <c r="R42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S42" s="37" t="s">
+      <c r="S42" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="T42" s="38" t="s">
+      <c r="T42" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="U42" s="38" t="s">
+      <c r="U42" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="V42" s="38" t="s">
+      <c r="V42" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="W42" s="39" t="s">
+      <c r="W42" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="X42" s="35"/>
-    </row>
-    <row r="43" spans="18:26" x14ac:dyDescent="0.25">
+      <c r="X42" s="32"/>
+    </row>
+    <row r="43" spans="18:26" x14ac:dyDescent="0.4">
       <c r="R43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S43" s="40">
-        <v>0</v>
-      </c>
-      <c r="T43" s="41">
-        <v>0</v>
-      </c>
-      <c r="U43" s="41">
-        <v>0</v>
-      </c>
-      <c r="V43" s="41" t="s">
+      <c r="S43" s="37">
+        <v>0</v>
+      </c>
+      <c r="T43" s="38">
+        <v>0</v>
+      </c>
+      <c r="U43" s="38">
+        <v>0</v>
+      </c>
+      <c r="V43" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W43" s="42" t="s">
+      <c r="W43" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="X43" s="36" t="s">
+      <c r="X43" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S44" s="43">
-        <v>1</v>
-      </c>
-      <c r="T44" s="44">
-        <v>0</v>
-      </c>
-      <c r="U44" s="44">
-        <v>0</v>
-      </c>
-      <c r="V44" s="44" t="s">
+    <row r="44" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S44" s="40">
+        <v>1</v>
+      </c>
+      <c r="T44" s="41">
+        <v>0</v>
+      </c>
+      <c r="U44" s="41">
+        <v>0</v>
+      </c>
+      <c r="V44" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="W44" s="45" t="s">
+      <c r="W44" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="X44" s="36" t="s">
+      <c r="X44" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S45" s="43" t="s">
+    <row r="45" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S45" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="T45" s="44" t="s">
+      <c r="T45" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="U45" s="44">
-        <v>1</v>
-      </c>
-      <c r="V45" s="44" t="s">
+      <c r="U45" s="41">
+        <v>1</v>
+      </c>
+      <c r="V45" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="W45" s="45">
-        <v>0</v>
-      </c>
-      <c r="X45" s="36" t="s">
+      <c r="W45" s="42">
+        <v>0</v>
+      </c>
+      <c r="X45" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S46" s="43">
-        <v>0</v>
-      </c>
-      <c r="T46" s="44">
-        <v>1</v>
-      </c>
-      <c r="U46" s="44">
-        <v>0</v>
-      </c>
-      <c r="V46" s="44" t="s">
+    <row r="46" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S46" s="40">
+        <v>0</v>
+      </c>
+      <c r="T46" s="41">
+        <v>1</v>
+      </c>
+      <c r="U46" s="41">
+        <v>0</v>
+      </c>
+      <c r="V46" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="W46" s="45">
-        <v>0</v>
-      </c>
-      <c r="X46" s="36" t="s">
+      <c r="W46" s="42">
+        <v>0</v>
+      </c>
+      <c r="X46" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="S47" s="46">
-        <v>1</v>
-      </c>
-      <c r="T47" s="47">
-        <v>1</v>
-      </c>
-      <c r="U47" s="47">
-        <v>0</v>
-      </c>
-      <c r="V47" s="47" t="s">
+    <row r="47" spans="18:26" x14ac:dyDescent="0.4">
+      <c r="S47" s="43">
+        <v>1</v>
+      </c>
+      <c r="T47" s="44">
+        <v>1</v>
+      </c>
+      <c r="U47" s="44">
+        <v>0</v>
+      </c>
+      <c r="V47" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="W47" s="48">
-        <v>1</v>
-      </c>
-      <c r="X47" s="36" t="s">
+      <c r="W47" s="45">
+        <v>1</v>
+      </c>
+      <c r="X47" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
       <c r="R49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S49" s="30" t="s">
+      <c r="S49" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="T49" s="31" t="s">
+      <c r="T49" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="U49" s="32"/>
-    </row>
-    <row r="50" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S50" s="30" t="s">
+      <c r="U49" s="29"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S50" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="T50" s="33" t="s">
+      <c r="T50" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="U50" s="32"/>
+      <c r="U50" s="29"/>
       <c r="V50" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
       <c r="R52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="S52" s="30" t="s">
+      <c r="S52" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="T52" s="31" t="s">
+      <c r="T52" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U52" s="31" t="s">
+      <c r="U52" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="V52" s="31" t="s">
+      <c r="V52" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="W52" s="31" t="s">
+      <c r="W52" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="X52" s="32" t="s">
+      <c r="X52" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S53" s="16" t="s">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S53" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="T53" s="17" t="s">
+      <c r="T53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="U53" s="17">
-        <v>1</v>
-      </c>
-      <c r="V53" s="17" t="s">
+      <c r="U53" s="14">
+        <v>1</v>
+      </c>
+      <c r="V53" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="W53" s="17"/>
-      <c r="X53" s="18" t="s">
+      <c r="W53" s="14"/>
+      <c r="X53" s="15" t="s">
         <v>119</v>
       </c>
       <c r="Y53" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S54" s="21" t="s">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S54" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="T54" s="22">
-        <v>1</v>
-      </c>
-      <c r="U54" s="22" t="s">
+      <c r="T54" s="19">
+        <v>1</v>
+      </c>
+      <c r="U54" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="V54" s="22" t="s">
+      <c r="V54" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="W54" s="34" t="s">
+      <c r="W54" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="X54" s="23"/>
+      <c r="X54" s="20"/>
       <c r="Y54" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S57" s="51" t="s">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S57" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="X57" s="49" t="s">
+      <c r="X57" s="46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S58" s="50" t="s">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S58" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="50" t="s">
+      <c r="X58" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S59" s="50" t="s">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S59" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="X59" s="50" t="s">
+      <c r="X59" s="47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S60" s="50" t="s">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S60" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="X60" s="50" t="s">
+      <c r="X60" s="47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S61" s="50" t="s">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S61" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="X61" s="50" t="s">
+      <c r="X61" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="S62" s="50" t="s">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S62" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="X62" s="50" t="s">
+      <c r="X62" s="47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M66" s="61" t="s">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A65" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="H65" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L65" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E66" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="66" t="s">
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="55"/>
+      <c r="Q66" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="R66" s="64" t="s">
+      <c r="R66" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="S66" s="65" t="s">
+      <c r="S66" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="T66" s="33"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="32"/>
-    </row>
-    <row r="67" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M67" s="19">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="25" t="s">
+      <c r="T66" s="30"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E67" s="77">
+        <v>0</v>
+      </c>
+      <c r="F67" s="72">
+        <v>0</v>
+      </c>
+      <c r="G67" s="72">
+        <v>0</v>
+      </c>
+      <c r="H67" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="R67" s="59" t="s">
+      <c r="R67" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="S67" s="28" t="s">
+      <c r="S67" s="25" t="s">
         <v>144</v>
       </c>
       <c r="T67" s="12"/>
-      <c r="V67" s="20"/>
-    </row>
-    <row r="68" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M68" s="19">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-      <c r="P68" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="25" t="s">
+      <c r="V67" s="17"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E68" s="77">
+        <v>0</v>
+      </c>
+      <c r="F68" s="72">
+        <v>0</v>
+      </c>
+      <c r="G68" s="72">
+        <v>0</v>
+      </c>
+      <c r="H68" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="R68" s="59" t="s">
+      <c r="R68" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="28" t="s">
+      <c r="S68" s="25" t="s">
         <v>147</v>
       </c>
       <c r="T68" s="12"/>
-      <c r="V68" s="20"/>
-    </row>
-    <row r="69" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M69" s="19">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
-      <c r="O69" s="2">
-        <v>1</v>
-      </c>
-      <c r="P69" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="25" t="s">
+      <c r="V68" s="17"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E69" s="77">
+        <v>0</v>
+      </c>
+      <c r="F69" s="72">
+        <v>0</v>
+      </c>
+      <c r="G69" s="72">
+        <v>1</v>
+      </c>
+      <c r="H69" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="R69" s="59" t="s">
+      <c r="R69" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="S69" s="28" t="s">
+      <c r="S69" s="25" t="s">
         <v>162</v>
       </c>
       <c r="T69" s="12"/>
-      <c r="V69" s="20"/>
-    </row>
-    <row r="70" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M70" s="19">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70" s="2">
-        <v>1</v>
-      </c>
-      <c r="P70" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="25" t="s">
+      <c r="V69" s="17"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E70" s="77">
+        <v>0</v>
+      </c>
+      <c r="F70" s="72">
+        <v>0</v>
+      </c>
+      <c r="G70" s="72">
+        <v>1</v>
+      </c>
+      <c r="H70" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="R70" s="59" t="s">
+      <c r="R70" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="S70" s="28" t="s">
+      <c r="S70" s="25" t="s">
         <v>165</v>
       </c>
       <c r="T70" s="12"/>
-      <c r="V70" s="20"/>
-    </row>
-    <row r="71" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M71" s="19">
-        <v>0</v>
-      </c>
-      <c r="N71" s="2">
-        <v>1</v>
-      </c>
-      <c r="O71" s="2">
-        <v>0</v>
-      </c>
-      <c r="P71" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="25" t="s">
+      <c r="V70" s="17"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E71" s="77">
+        <v>0</v>
+      </c>
+      <c r="F71" s="72">
+        <v>1</v>
+      </c>
+      <c r="G71" s="72">
+        <v>0</v>
+      </c>
+      <c r="H71" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="R71" s="59" t="s">
+      <c r="R71" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="S71" s="28" t="s">
+      <c r="S71" s="25" t="s">
         <v>168</v>
       </c>
       <c r="T71" s="12"/>
-      <c r="V71" s="20"/>
-    </row>
-    <row r="72" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M72" s="56">
-        <v>0</v>
-      </c>
-      <c r="N72" s="57">
-        <v>1</v>
-      </c>
-      <c r="O72" s="57">
-        <v>0</v>
-      </c>
-      <c r="P72" s="58">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="25" t="s">
+      <c r="V71" s="17"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E72" s="88">
+        <v>0</v>
+      </c>
+      <c r="F72" s="89">
+        <v>1</v>
+      </c>
+      <c r="G72" s="89">
+        <v>0</v>
+      </c>
+      <c r="H72" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="R72" s="59" t="s">
+      <c r="R72" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="S72" s="28" t="s">
+      <c r="S72" s="25" t="s">
         <v>171</v>
       </c>
       <c r="T72" s="12"/>
-      <c r="V72" s="20"/>
-    </row>
-    <row r="73" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M73" s="19">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2">
-        <v>1</v>
-      </c>
-      <c r="O73" s="2">
-        <v>1</v>
-      </c>
-      <c r="P73" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="25" t="s">
+      <c r="V72" s="17"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E73" s="77">
+        <v>0</v>
+      </c>
+      <c r="F73" s="72">
+        <v>1</v>
+      </c>
+      <c r="G73" s="72">
+        <v>1</v>
+      </c>
+      <c r="H73" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="R73" s="59" t="s">
+      <c r="R73" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="S73" s="28" t="s">
+      <c r="S73" s="25" t="s">
         <v>186</v>
       </c>
       <c r="T73" s="12"/>
-      <c r="V73" s="20"/>
-    </row>
-    <row r="74" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M74" s="19">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2">
-        <v>1</v>
-      </c>
-      <c r="O74" s="2">
-        <v>1</v>
-      </c>
-      <c r="P74" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="25" t="s">
+      <c r="V73" s="17"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E74" s="77">
+        <v>0</v>
+      </c>
+      <c r="F74" s="72">
+        <v>1</v>
+      </c>
+      <c r="G74" s="72">
+        <v>1</v>
+      </c>
+      <c r="H74" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="R74" s="59" t="s">
+      <c r="R74" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="S74" s="28" t="s">
+      <c r="S74" s="25" t="s">
         <v>185</v>
       </c>
       <c r="T74" s="12"/>
-      <c r="V74" s="20"/>
-    </row>
-    <row r="75" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M75" s="19">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0</v>
-      </c>
-      <c r="O75" s="2">
-        <v>0</v>
-      </c>
-      <c r="P75" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="25" t="s">
+      <c r="V74" s="17"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E75" s="77">
+        <v>1</v>
+      </c>
+      <c r="F75" s="72">
+        <v>0</v>
+      </c>
+      <c r="G75" s="72">
+        <v>0</v>
+      </c>
+      <c r="H75" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="R75" s="59" t="s">
+      <c r="R75" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="S75" s="28" t="s">
+      <c r="S75" s="25" t="s">
         <v>190</v>
       </c>
       <c r="T75" s="12"/>
-      <c r="V75" s="20"/>
-    </row>
-    <row r="76" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M76" s="19">
-        <v>1</v>
-      </c>
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-      <c r="O76" s="2">
-        <v>0</v>
-      </c>
-      <c r="P76" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="25" t="s">
+      <c r="V75" s="17"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E76" s="77">
+        <v>1</v>
+      </c>
+      <c r="F76" s="72">
+        <v>0</v>
+      </c>
+      <c r="G76" s="72">
+        <v>0</v>
+      </c>
+      <c r="H76" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="R76" s="59" t="s">
+      <c r="R76" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="S76" s="28" t="s">
+      <c r="S76" s="25" t="s">
         <v>184</v>
       </c>
       <c r="T76" s="12"/>
-      <c r="V76" s="20"/>
-    </row>
-    <row r="77" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M77" s="19">
-        <v>1</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0</v>
-      </c>
-      <c r="O77" s="2">
-        <v>1</v>
-      </c>
-      <c r="P77" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="25" t="s">
+      <c r="V76" s="17"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E77" s="77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="72">
+        <v>0</v>
+      </c>
+      <c r="G77" s="72">
+        <v>1</v>
+      </c>
+      <c r="H77" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="R77" s="59" t="s">
+      <c r="R77" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="S77" s="28" t="s">
+      <c r="S77" s="25" t="s">
         <v>156</v>
       </c>
       <c r="T77" s="12"/>
-      <c r="V77" s="20"/>
-    </row>
-    <row r="78" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M78" s="19">
-        <v>1</v>
-      </c>
-      <c r="N78" s="2">
-        <v>0</v>
-      </c>
-      <c r="O78" s="2">
-        <v>1</v>
-      </c>
-      <c r="P78" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="25" t="s">
+      <c r="V77" s="17"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E78" s="77">
+        <v>1</v>
+      </c>
+      <c r="F78" s="72">
+        <v>0</v>
+      </c>
+      <c r="G78" s="72">
+        <v>1</v>
+      </c>
+      <c r="H78" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="R78" s="59" t="s">
+      <c r="R78" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="S78" s="28" t="s">
+      <c r="S78" s="25" t="s">
         <v>153</v>
       </c>
       <c r="T78" s="12"/>
-      <c r="V78" s="20"/>
-    </row>
-    <row r="79" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M79" s="19">
-        <v>1</v>
-      </c>
-      <c r="N79" s="2">
-        <v>1</v>
-      </c>
-      <c r="O79" s="2">
-        <v>0</v>
-      </c>
-      <c r="P79" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="25" t="s">
+      <c r="V78" s="17"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E79" s="77">
+        <v>1</v>
+      </c>
+      <c r="F79" s="72">
+        <v>1</v>
+      </c>
+      <c r="G79" s="72">
+        <v>0</v>
+      </c>
+      <c r="H79" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="R79" s="59" t="s">
+      <c r="R79" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="S79" s="28" t="s">
+      <c r="S79" s="25" t="s">
         <v>150</v>
       </c>
       <c r="T79" s="12"/>
-      <c r="V79" s="20"/>
-    </row>
-    <row r="80" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M80" s="19">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2">
-        <v>1</v>
-      </c>
-      <c r="O80" s="2">
-        <v>0</v>
-      </c>
-      <c r="P80" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="25" t="s">
+      <c r="V79" s="17"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E80" s="77">
+        <v>1</v>
+      </c>
+      <c r="F80" s="72">
+        <v>1</v>
+      </c>
+      <c r="G80" s="72">
+        <v>0</v>
+      </c>
+      <c r="H80" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="R80" s="59" t="s">
+      <c r="R80" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="S80" s="28" t="s">
+      <c r="S80" s="25" t="s">
         <v>159</v>
       </c>
       <c r="T80" s="12"/>
-      <c r="V80" s="20"/>
-    </row>
-    <row r="81" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M81" s="19">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2">
-        <v>1</v>
-      </c>
-      <c r="O81" s="2">
-        <v>1</v>
-      </c>
-      <c r="P81" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="25" t="s">
+      <c r="V80" s="17"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E81" s="77">
+        <v>1</v>
+      </c>
+      <c r="F81" s="72">
+        <v>1</v>
+      </c>
+      <c r="G81" s="72">
+        <v>1</v>
+      </c>
+      <c r="H81" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="R81" s="59" t="s">
+      <c r="R81" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="S81" s="28" t="s">
+      <c r="S81" s="25" t="s">
         <v>188</v>
       </c>
       <c r="T81" s="12"/>
-      <c r="V81" s="20"/>
-    </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M82" s="21">
-        <v>1</v>
-      </c>
-      <c r="N82" s="22">
-        <v>1</v>
-      </c>
-      <c r="O82" s="22">
-        <v>1</v>
-      </c>
-      <c r="P82" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="26" t="s">
+      <c r="V81" s="17"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E82" s="79">
+        <v>1</v>
+      </c>
+      <c r="F82" s="80">
+        <v>1</v>
+      </c>
+      <c r="G82" s="80">
+        <v>1</v>
+      </c>
+      <c r="H82" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="R82" s="60" t="s">
+      <c r="R82" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="S82" s="29" t="s">
+      <c r="S82" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="T82" s="34"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="23"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="20"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A84" s="49"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A86" s="69">
+        <v>0</v>
+      </c>
+      <c r="B86" s="70">
+        <v>1</v>
+      </c>
+      <c r="C86" s="70">
+        <v>0</v>
+      </c>
+      <c r="D86" s="71">
+        <v>0</v>
+      </c>
+      <c r="E86" s="70">
+        <v>0</v>
+      </c>
+      <c r="F86" s="70">
+        <v>0</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="H86" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="I86" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="K86" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="L86" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N86" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="O86" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G87" s="74">
+        <v>0</v>
+      </c>
+      <c r="H87" s="75">
+        <v>0</v>
+      </c>
+      <c r="I87" s="75">
+        <v>0</v>
+      </c>
+      <c r="J87" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R87" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="S87" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G88" s="77">
+        <v>0</v>
+      </c>
+      <c r="H88" s="72">
+        <v>0</v>
+      </c>
+      <c r="I88" s="72">
+        <v>0</v>
+      </c>
+      <c r="J88" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="R88" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="S88" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G89" s="77">
+        <v>0</v>
+      </c>
+      <c r="H89" s="72">
+        <v>0</v>
+      </c>
+      <c r="I89" s="72">
+        <v>1</v>
+      </c>
+      <c r="J89" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="R89" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="S89" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G90" s="77">
+        <v>0</v>
+      </c>
+      <c r="H90" s="72">
+        <v>0</v>
+      </c>
+      <c r="I90" s="72">
+        <v>1</v>
+      </c>
+      <c r="J90" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="R90" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G91" s="77">
+        <v>0</v>
+      </c>
+      <c r="H91" s="72">
+        <v>1</v>
+      </c>
+      <c r="I91" s="72">
+        <v>0</v>
+      </c>
+      <c r="J91" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="R91" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="S91" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G92" s="77">
+        <v>0</v>
+      </c>
+      <c r="H92" s="72">
+        <v>1</v>
+      </c>
+      <c r="I92" s="72">
+        <v>0</v>
+      </c>
+      <c r="J92" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="R92" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="S92" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G93" s="77">
+        <v>0</v>
+      </c>
+      <c r="H93" s="72">
+        <v>1</v>
+      </c>
+      <c r="I93" s="72">
+        <v>1</v>
+      </c>
+      <c r="J93" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="R93" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="S93" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G94" s="77">
+        <v>0</v>
+      </c>
+      <c r="H94" s="72">
+        <v>1</v>
+      </c>
+      <c r="I94" s="72">
+        <v>1</v>
+      </c>
+      <c r="J94" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="R94" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="S94" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G95" s="77">
+        <v>1</v>
+      </c>
+      <c r="H95" s="72">
+        <v>0</v>
+      </c>
+      <c r="I95" s="72">
+        <v>0</v>
+      </c>
+      <c r="J95" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="R95" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="S95" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G96" s="77">
+        <v>1</v>
+      </c>
+      <c r="H96" s="72">
+        <v>0</v>
+      </c>
+      <c r="I96" s="72">
+        <v>0</v>
+      </c>
+      <c r="J96" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="R96" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="S96" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G97" s="77">
+        <v>1</v>
+      </c>
+      <c r="H97" s="72">
+        <v>0</v>
+      </c>
+      <c r="I97" s="72">
+        <v>1</v>
+      </c>
+      <c r="J97" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="R97" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="S97" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G98" s="77">
+        <v>1</v>
+      </c>
+      <c r="H98" s="72">
+        <v>0</v>
+      </c>
+      <c r="I98" s="72">
+        <v>1</v>
+      </c>
+      <c r="J98" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="R98" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="S98" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G99" s="77">
+        <v>1</v>
+      </c>
+      <c r="H99" s="72">
+        <v>1</v>
+      </c>
+      <c r="I99" s="72">
+        <v>0</v>
+      </c>
+      <c r="J99" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="R99" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="S99" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G100" s="77">
+        <v>1</v>
+      </c>
+      <c r="H100" s="72">
+        <v>1</v>
+      </c>
+      <c r="I100" s="72">
+        <v>0</v>
+      </c>
+      <c r="J100" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="R100" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="S100" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G101" s="77">
+        <v>1</v>
+      </c>
+      <c r="H101" s="72">
+        <v>1</v>
+      </c>
+      <c r="I101" s="72">
+        <v>1</v>
+      </c>
+      <c r="J101" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="R101" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="S101" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G102" s="79">
+        <v>1</v>
+      </c>
+      <c r="H102" s="80">
+        <v>1</v>
+      </c>
+      <c r="I102" s="80">
+        <v>1</v>
+      </c>
+      <c r="J102" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R102" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="S102" s="12" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AC13:AC14 AG13:AG14 A8:P8 A11:P14 A5:J7 A10:E10 A9:E9 I9:P9 I10:P10 A4 AG5:AG12 X5:X14" numberStoredAsText="1"/>
+    <ignoredError sqref="AC13:AC14 AG13:AG14 A8:P8 A11:P14 A5:J7 A10:E10 A9:E9 I9:P9 I10:P10 A4 AG5:AG12 X5:X14 A65:D65" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>